--- a/katia/Aula 4.xlsx
+++ b/katia/Aula 4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12330" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12330" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="RATREAR PRECENDENTES" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,12 @@
     <sheet name="TEMPO" sheetId="11" r:id="rId11"/>
     <sheet name="HORA MINUTO SEGUNDO" sheetId="12" r:id="rId12"/>
     <sheet name="DATA FINAL INICIAL" sheetId="13" r:id="rId13"/>
-    <sheet name="Planilha14" sheetId="14" r:id="rId14"/>
+    <sheet name="EXERCICIO" sheetId="14" r:id="rId14"/>
+    <sheet name="Planilha1" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="feriados">DIATRABALHO!$A$6:$A$7</definedName>
-    <definedName name="FERIADOS2">Planilha14!$B$1:$B$2</definedName>
+    <definedName name="FERIADOS">EXERCICIO!$A$8:$A$10</definedName>
+    <definedName name="FERIADOSMARLON">Planilha1!$A$11:$A$13</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>DATA INICIO</t>
   </si>
@@ -97,20 +98,30 @@
     <t>DATA INICIAL</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>ABRIL/MAIO</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>TOTAL DIAS</t>
+  </si>
+  <si>
+    <t>VALOR HORA</t>
+  </si>
+  <si>
+    <t>DATA REAJUSTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -149,13 +160,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -678,10 +690,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,9 +702,10 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -700,7 +713,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -709,81 +722,213 @@
         <v>43616</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <f>NETWORKDAYS(B1,B2,FERIADOS)</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43586</v>
+      </c>
+      <c r="H10" s="5">
+        <f>(((E6-E15)*B4*B12)+(E15*4)*B16)</f>
+        <v>25040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f>(NETWORKDAYS(B1,B2,FERIADOS)-(NETWORKDAYS(B15,B2,FERIADOS)))</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43556</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <f>NETWORKDAYS(B15,B2,FERIADOS)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <f>EOMONTH(B2,2)</f>
+        <v>43555</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43556</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <f>NETWORKDAYS(B1,B2,FERIADOS2)</f>
-        <v>107</v>
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <f>EOMONTH(B5,1)</f>
+        <v>43616</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="5">
+        <f>(NETWORKDAYS(B2,EOMONTH(B2,2),FERIADOS)*B7*B4)+(NETWORKDAYS(B5,EOMONTH(B5,1),FERIADOS)*B7*B19)</f>
+        <v>25040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>2</v>
-      </c>
-      <c r="F7">
-        <f>E6-E16</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43466</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44307</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44317</v>
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43574</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="4">
-        <v>55</v>
+      <c r="A13" s="1">
+        <v>43586</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B17" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B18" s="1">
         <v>43556</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="E16">
-        <f>NETWORKDAYS(B16,B2)</f>
-        <v>45</v>
+      <c r="B19" s="5">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1010,8 +1155,8 @@
         <v>43465</v>
       </c>
       <c r="B6" s="1">
-        <f>WORKDAY(B1,B2,feriados)</f>
-        <v>43663</v>
+        <f>WORKDAY(B1,B2,FERIADOS)</f>
+        <v>43664</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1068,8 +1213,8 @@
         <v>43465</v>
       </c>
       <c r="B6" s="1">
-        <f>WORKDAY(B1,B2,feriados)</f>
-        <v>43663</v>
+        <f>WORKDAY(B1,B2,FERIADOS)</f>
+        <v>43664</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,8 +1230,8 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <f>WORKDAY.INTL(B1,B2,11,feriados)</f>
-        <v>43628</v>
+        <f>WORKDAY.INTL(B1,B2,11,FERIADOS)</f>
+        <v>43629</v>
       </c>
     </row>
   </sheetData>
@@ -1143,8 +1288,8 @@
         <v>43449</v>
       </c>
       <c r="B6">
-        <f>NETWORKDAYS(B1,B2,feriados)</f>
-        <v>33</v>
+        <f>NETWORKDAYS(B1,B2,FERIADOS)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1160,8 +1305,8 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9">
-        <f>NETWORKDAYS.INTL(B1,B2,11,feriados)</f>
-        <v>40</v>
+        <f>NETWORKDAYS.INTL(B1,B2,11,FERIADOS)</f>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
